--- a/biology/Zoologie/Bufotes_pewzowi/Bufotes_pewzowi.xlsx
+++ b/biology/Zoologie/Bufotes_pewzowi/Bufotes_pewzowi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bufotes pewzowi est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bufotes pewzowi est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 dans l'ouest de la Mongolie ;
 en Chine au Xinjiang sur les versants Nord et Est du Tian Shan, sur le versant Nord du Kunlun Shan et dans l'Est du Pamir ;
 dans la République de l'Altaï en Russie ;
@@ -550,9 +564,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du général Michail Wassiljewitsch Pewzow (1843–1902)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du général Michail Wassiljewitsch Pewzow (1843–1902).
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bedriaga, 1898  : Wissenschaftliche Resultate der von N. M.. Prezewalski unternommenen Reisen. Zoologischer Theil. vol. III, part 1 Amphibien und Reptilien. Kaiserliche Akademie der Wissenschaften (texte intégral).</t>
         </is>
